--- a/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000551</t>
+          <t>004952</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信诚幸福消费混合</t>
+          <t>兴全恒益债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>38.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000767</t>
+          <t>000551</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华富国泰民安灵活配置混合</t>
+          <t>信诚幸福消费混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004952</t>
+          <t>000767</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴全恒益债券A</t>
+          <t>华富国泰民安灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.89</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>22.89</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.57</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000767</t>
+          <t>004952</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华富国泰民安灵活配置混合</t>
+          <t>兴全恒益债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>70.71</t>
+          <t>36.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004952</t>
+          <t>000767</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴全恒益债券A</t>
+          <t>华富国泰民安灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>70.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>22.45</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.48</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3902</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3207</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.21</v>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.82</v>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5976</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.58</v>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5827</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5167</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4603</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2841</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2635,7 +2636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2646,17 +2647,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2666,14 +2687,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.7</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4076</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2682,14 +2725,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.21</v>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7809</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2698,14 +2763,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.82</v>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2714,14 +2801,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.58</v>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2730,13 +2839,1421 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4759</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4614</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4501</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4306</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3972</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3408</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4136,7 +4137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4147,17 +4148,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4167,14 +4188,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.37</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3995</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4183,14 +4226,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.7</v>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8991</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4199,14 +4264,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.21</v>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6199</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4215,14 +4302,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.82</v>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5685</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4231,14 +4340,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.58</v>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5685</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4247,13 +4378,981 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4151</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3686</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009096</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009097</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
-        <v>7.53</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>7.37</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>4.7</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>2.21</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.82</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.58</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -600,6 +617,1620 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4080</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9894</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7823</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008317</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信睿盈混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6504</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6334</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5871</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4208</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4015</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3817</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3653</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2147</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>60.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1681,7 +3312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3181,7 +4812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4149,7 +5780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4805,176 +6436,6 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004952</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全恒益债券A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>31.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>26.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5429</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2614</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>26.39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5050,26 +6511,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.93</t>
+          <t>31.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>26.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5466</t>
+          <t>0.5429</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5078,36 +6539,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000767</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华富国泰民安灵活配置混合</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.71</t>
+          <t>87.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0191</t>
+          <t>0.2614</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5126,26 +6587,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>26.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0149</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5154,6 +6615,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600195-中牧股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>9.9</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>7.53</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>7.37</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>4.7</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>2.21</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>0.82</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.58</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -616,7 +633,1293 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008317</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信睿盈混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5493</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3861</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2230,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3312,7 +4615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4812,7 +6115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5780,7 +7083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6436,176 +7739,6 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004952</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全恒益债券A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>31.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>26.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5429</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2614</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>26.39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6681,26 +7814,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.93</t>
+          <t>31.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>26.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5466</t>
+          <t>0.5429</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -6709,36 +7842,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000767</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华富国泰民安灵活配置混合</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.71</t>
+          <t>87.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0191</t>
+          <t>0.2614</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6757,26 +7890,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>26.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0149</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6790,53 +7923,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -6851,60 +7984,60 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.29</t>
+          <t>36.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22.89</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6012</t>
+          <t>0.5466</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000551</t>
+          <t>000767</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚幸福消费混合</t>
+          <t>华富国泰民安灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>70.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1091</t>
+          <t>0.0191</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -6912,82 +8045,44 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000767</t>
+          <t>004953</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华富国泰民安灵活配置混合</t>
+          <t>兴全恒益债券C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0239</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>